--- a/ReadAndWriteDataInExcel/Info.xlsx
+++ b/ReadAndWriteDataInExcel/Info.xlsx
@@ -5,17 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MehmetBesli\Documents\UiPath\ExcelReadAndWrite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MehmetBesli\Documents\UiPath\1UiPathExamples\ReadAndWriteDataInExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7A8C04-ABC4-4D90-A386-FD4979F2462D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57674EC-FB0E-4DB6-A0B2-DBDCA3765196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{790E0BAE-C186-4A3F-A5C5-4BA709CBDF40}"/>
   </bookViews>
   <sheets>
-    <sheet name="YeniData(Engineer)" sheetId="5" r:id="rId1"/>
-    <sheet name="YeniData" sheetId="4" r:id="rId2"/>
-    <sheet name="Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -129,18 +127,6 @@
   </si>
   <si>
     <t>Housewife</t>
-  </si>
-  <si>
-    <t>E-Posta</t>
-  </si>
-  <si>
-    <t>Departman</t>
-  </si>
-  <si>
-    <t>Isim</t>
-  </si>
-  <si>
-    <t>Soyisim</t>
   </si>
 </sst>
 </file>
@@ -516,162 +502,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F887A6-1604-47CF-A5C9-B4675F7737DD}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA9051E-00A1-4103-B55B-24D70C3E27DA}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A402943-3EA4-4EE9-9CD9-DFE096BF143D}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/ReadAndWriteDataInExcel/Info.xlsx
+++ b/ReadAndWriteDataInExcel/Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MehmetBesli\Documents\UiPath\1UiPathExamples\ReadAndWriteDataInExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57674EC-FB0E-4DB6-A0B2-DBDCA3765196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8A8787-6A1E-4490-845E-AAE8F792EF88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{790E0BAE-C186-4A3F-A5C5-4BA709CBDF40}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
